--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_007.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_007.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295027EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Hydrogen recombiners</t>
-  </si>
-  <si>
-    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(700000AK2.10) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Emergency generators (diesel/jet)</t>
-  </si>
-  <si>
-    <t>(295003AA1.07) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical loads</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
-  </si>
-  <si>
-    <t>(295006AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Pressure control</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295016AK2.06) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(600000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm reset panel</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295025EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295023AK2.10) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295037EA1.10) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Systems used for alternate boron injection </t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Recirculation pump downshift/trip</t>
-  </si>
-  <si>
-    <t>(295019AK2.18) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
-  </si>
-  <si>
-    <t>(295029EK2.07) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Drywell/containment water level</t>
-  </si>
-  <si>
-    <t>(295033EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295008AK3.09) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) HPCS injection valve closure</t>
-  </si>
-  <si>
-    <t>(295022AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(262001A4.06) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Instrumentation switches</t>
-  </si>
-  <si>
-    <t>(215003A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Reactor SCRAM signals</t>
-  </si>
-  <si>
-    <t>(400000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Reactor water cleanup system</t>
-  </si>
-  <si>
-    <t>(209001K3.01) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(215005K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) OPRM operation</t>
-  </si>
-  <si>
-    <t>(262002K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(205000K4.03) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(212000A2.10) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Reactor/turbine pressure regulating system low hydraulic pressure</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(215004A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) RPS status</t>
-  </si>
-  <si>
-    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
-  </si>
-  <si>
-    <t>(264000K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Bus frequency/voltage</t>
-  </si>
-  <si>
-    <t>(217000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Reactor level control</t>
-  </si>
-  <si>
-    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291002K1.08) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Effects of operating environment (pressure, temperature, or radiation)</t>
-  </si>
-  <si>
-    <t>(259002K4.13) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) FWRV lockup</t>
-  </si>
-  <si>
-    <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
-  </si>
-  <si>
-    <t>(203000K2.01) (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(209002A3.07) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Emergency diesel generator operation</t>
-  </si>
-  <si>
-    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
-  </si>
-  <si>
-    <t>(215003A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) IRM back panel switches</t>
-  </si>
-  <si>
-    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
-  </si>
-  <si>
-    <t>(241000A2.21) Ability to (a) predict the impacts of the following on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Hydraulic pump trip</t>
-  </si>
-  <si>
-    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
-  </si>
-  <si>
-    <t>(259001A3.07) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) FWRV position</t>
-  </si>
-  <si>
-    <t>(201005A4.03) Ability to manually operate and/or monitor the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Back panel indicating lights</t>
-  </si>
-  <si>
-    <t>(245000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Turbine lube oil pressure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.7 / 45.7) Safety relief valves </t>
-  </si>
-  <si>
-    <t>(272000K3.13) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Continuous air monitoring/post‑accident air monitoring systems</t>
-  </si>
-  <si>
-    <t>(216000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Indicated level versus actual vessel level during vessel heatups or cooldowns</t>
-  </si>
-  <si>
-    <t>(233000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(286000K4.01) Knowledge of (SF8 FPS) FIRE PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.5 / 41.7 / 45.3 to 45.8) Adequate water supply system</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292005K1.04) CONTROL RODS (CFR: 41.1) Predict direction of change in reactor power for a change in control rod position</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(293006K1.07) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) State the purpose of a pump</t>
-  </si>
-  <si>
-    <t>(293008K1.20) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define carryunder</t>
-  </si>
-  <si>
-    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
-  </si>
-  <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
+  </si>
+  <si>
+    <t>(295005AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Core thermal limits</t>
+  </si>
+  <si>
+    <t>(295021AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Maximizing reactor water cleanup flow</t>
+  </si>
+  <si>
+    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
+  </si>
+  <si>
+    <t>(295001AK2.09) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Safety relief valves</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295024EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell spray (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295003AA2.02) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Reactor power, pressure, and level</t>
+  </si>
+  <si>
+    <t>(700000AK2.02) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Breakers, relays</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295037EK2.21) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) Low-pressure core spray</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295026EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) LPCS</t>
+  </si>
+  <si>
+    <t>(295025EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
+  </si>
+  <si>
+    <t>(295022AK2.03) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Accumulator</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295009AA1.01) Ability to operate and/or monitor the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.7 / 45.6) Feedwater system</t>
+  </si>
+  <si>
+    <t>(295002AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.8 to 41.10) Offgas flow changes</t>
+  </si>
+  <si>
+    <t>(500000EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.5 / 45.6) Operation of wetwell vent</t>
+  </si>
+  <si>
+    <t>(264000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Room ventilation</t>
+  </si>
+  <si>
+    <t>(205000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Valve operation</t>
+  </si>
+  <si>
+    <t>(263000K4.05) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Coping time</t>
+  </si>
+  <si>
+    <t>(211000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(262002K3.20) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
+  </si>
+  <si>
+    <t>(203000A3.01) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Valve operation</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209001A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(215004A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.5 / 45.5) Control rod block status</t>
+  </si>
+  <si>
+    <t>(262001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) DC power</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(510000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Feedwater system</t>
+  </si>
+  <si>
+    <t>(215005K3.06) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) IRM system</t>
+  </si>
+  <si>
+    <t>(261000A4.05) Ability to manually operate and/or monitor the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Drywell to suppression chamber/torus differential pressure (Mark I and II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
+  </si>
+  <si>
+    <t>(300000K2.02) (SF8 IA) INSTRUMENT AIR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Emergency air compressor</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291006K1.02) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Proper filling of a shell-and-tube heat exchanger</t>
+  </si>
+  <si>
+    <t>(400000A2.10) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Spent fuel pool cooling system heat exchanger tube leak</t>
+  </si>
+  <si>
+    <t>(223002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(264000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Battery charger</t>
+  </si>
+  <si>
+    <t>(205000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) System venting</t>
+  </si>
+  <si>
+    <t>(263000K4.03) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Ground detection</t>
+  </si>
+  <si>
+    <t>(211000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) CRD system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(226001A2.09) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate room cooling </t>
+  </si>
+  <si>
+    <t>(259001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(268000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 RW) RADWASTE SYSTEM: (CFR: 41.5 / 45.3) Dilution flow for releases</t>
+  </si>
+  <si>
+    <t>(510001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(245000K4.05) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine protection</t>
+  </si>
+  <si>
+    <t>(234000K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(271000K3.06) Knowledge of the effect that a loss or malfunction of the (SF9 OG) OFFGAS SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(256000A4.15) Ability to manually operate and/or monitor the (SF2 CDS) CONDENSATE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Air ejectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(201003A4.01) Ability to manually operate and/or monitor the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM in the control room: (CFR: 41.1-7 / 45.1-8) CRD mechanism temperature </t>
+  </si>
+  <si>
+    <t>(201001K2.06) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
+  </si>
+  <si>
+    <t>(292008K1.21) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the relationship between steam production rate and reactor power given specific conditions</t>
+  </si>
+  <si>
+    <t>(292006K1.09) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Initial reactor startup and ascension to rated power</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293004K1.13) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain vacuum formation in condenser processes</t>
+  </si>
+  <si>
+    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295001AA2.12) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal-hydraulic instabilities</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295020AA2.02) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment temperature</t>
+  </si>
+  <si>
+    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
   </si>
   <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(215005A2.04) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) SCRAM trip signals</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(215001A2.03) Ability to (a) predict the impacts of the following on the (SF7 TIP) TRAVERSING IN CORE PROBE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Drive mechanism failure</t>
-  </si>
-  <si>
-    <t>(201003) (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(219000A2.12) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
-  </si>
-  <si>
-    <t>(G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(217000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002A2.02) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical power</t>
+  </si>
+  <si>
+    <t>(216000) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>295027</t>
   </si>
   <si>
+    <t>295038</t>
+  </si>
+  <si>
     <t>295024</t>
   </si>
   <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295003</t>
+    <t>295019</t>
   </si>
   <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295021</t>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295037</t>
   </si>
   <si>
     <t>295006</t>
   </si>
   <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295013</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>295020</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>272000</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>202002</t>
   </si>
   <si>
     <t>216000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>219000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,7 +1443,7 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
         <v>112</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D33" t="s">
         <v>114</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1599,7 +1599,7 @@
         <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
         <v>112</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D44" t="s">
         <v>114</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D51" t="s">
         <v>112</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
         <v>114</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2024,7 +2024,7 @@
         <v>2.9</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
